--- a/cc.xlsx
+++ b/cc.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="203">
   <si>
     <t>میثم</t>
   </si>
@@ -673,6 +673,30 @@
   </si>
   <si>
     <t>تماس بگیرید</t>
+  </si>
+  <si>
+    <t>سخنرانی حضوری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حسن </t>
+  </si>
+  <si>
+    <t>خانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میروکیلی </t>
+  </si>
+  <si>
+    <t>On the soft coloring of soft graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مریم </t>
+  </si>
+  <si>
+    <t>تقی زاده بیلندی</t>
+  </si>
+  <si>
+    <t>بررسی درک دانشجویان در مفهوم درخت با استفاده از تجزیه ژنیتیکی در نظریه APOS</t>
   </si>
 </sst>
 </file>
@@ -1253,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1672,7 +1696,7 @@
         <v>156</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2119,7 +2143,7 @@
         <v>137</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>139</v>
@@ -2257,6 +2281,54 @@
       <c r="G39" s="38"/>
       <c r="H39" s="37" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" s="32">
+        <v>550000</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="G41" t="s">
+        <v>199</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="F42">
+        <v>400000</v>
+      </c>
+      <c r="G42" t="s">
+        <v>202</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
